--- a/tut05/output/0501CS30.xlsx
+++ b/tut05/output/0501CS30.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.857142857142858</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.522727272727273</v>
+        <v>8.52</v>
       </c>
       <c r="D6" t="n">
-        <v>8.953488372093023</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.297872340425531</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>8.642857142857142</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.925000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="H6" t="n">
-        <v>8.780487804878049</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>8.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.857142857142858</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.698924731182796</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.779411764705882</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.655737704918034</v>
+        <v>8.66</v>
       </c>
       <c r="F8" t="n">
-        <v>8.653333333333334</v>
+        <v>8.65</v>
       </c>
       <c r="G8" t="n">
-        <v>8.694339622641509</v>
+        <v>8.69</v>
       </c>
       <c r="H8" t="n">
-        <v>8.705882352941176</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.687861271676301</v>
+        <v>8.69</v>
       </c>
     </row>
   </sheetData>
